--- a/algstudent/Lab6/lab6mediciones.xlsx
+++ b/algstudent/Lab6/lab6mediciones.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmene\Documents\2o\Algoritmia\algorithmics-template\algstudent\Lab5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmene\Documents\2o\Algoritmia\algorithmics-template\algstudent\Lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504530CD-F95B-44F2-ACA8-FE2E842B6BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E69D11-0C6E-491C-80A8-45B5BCC0EA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab5" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="vectorsum" sheetId="2" r:id="rId2"/>
+    <sheet name="fibonacci" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="122">
   <si>
     <t>Substraction1</t>
   </si>
@@ -256,13 +257,160 @@
   </si>
   <si>
     <t>years</t>
+  </si>
+  <si>
+    <t>sum2</t>
+  </si>
+  <si>
+    <t>SIZE = 3**TIME = 0** nTimes = 1000 SUM = -16</t>
+  </si>
+  <si>
+    <t>SIZE = 6**TIME = 0** nTimes = 1000 SUM = 15</t>
+  </si>
+  <si>
+    <t>SIZE = 12**TIME = 0** nTimes = 1000 SUM = 8</t>
+  </si>
+  <si>
+    <t>SIZE = 24**TIME = 1** nTimes = 1000 SUM = -36</t>
+  </si>
+  <si>
+    <t>SIZE = 48**TIME = 3** nTimes = 1000 SUM = 29</t>
+  </si>
+  <si>
+    <t>SIZE = 96**TIME = 4** nTimes = 1000 SUM = 61</t>
+  </si>
+  <si>
+    <t>SIZE = 192**TIME = 9** nTimes = 1000 SUM = -39</t>
+  </si>
+  <si>
+    <t>SIZE = 384**TIME = 16** nTimes = 1000 SUM = 104</t>
+  </si>
+  <si>
+    <t>SIZE = 768**TIME = 33** nTimes = 1000 SUM = 52</t>
+  </si>
+  <si>
+    <t>SIZE = 1536**TIME = 54** nTimes = 1000 SUM = -78</t>
+  </si>
+  <si>
+    <t>SIZE = 3072**TIME = 113** nTimes = 1000 SUM = -137</t>
+  </si>
+  <si>
+    <t>SIZE = 6144**TIME = 222** nTimes = 1000 SUM = 418</t>
+  </si>
+  <si>
+    <t>Exception in thread "main" java.lang.StackOverflowError</t>
+  </si>
+  <si>
+    <t>sum1</t>
+  </si>
+  <si>
+    <t>n=1</t>
+  </si>
+  <si>
+    <t>sum3</t>
+  </si>
+  <si>
+    <t>SIZE = 3**TIME = 0** nTimes = 1000 SUM = 8</t>
+  </si>
+  <si>
+    <t>SIZE = 6**TIME = 0** nTimes = 1000 SUM = 7</t>
+  </si>
+  <si>
+    <t>SIZE = 12**TIME = 1** nTimes = 1000 SUM = 19</t>
+  </si>
+  <si>
+    <t>SIZE = 24**TIME = 1** nTimes = 1000 SUM = 40</t>
+  </si>
+  <si>
+    <t>SIZE = 48**TIME = 1** nTimes = 1000 SUM = 19</t>
+  </si>
+  <si>
+    <t>SIZE = 96**TIME = 3** nTimes = 1000 SUM = 34</t>
+  </si>
+  <si>
+    <t>SIZE = 192**TIME = 5** nTimes = 1000 SUM = -20</t>
+  </si>
+  <si>
+    <t>SIZE = 384**TIME = 7** nTimes = 1000 SUM = -7</t>
+  </si>
+  <si>
+    <t>SIZE = 768**TIME = 16** nTimes = 1000 SUM = 5</t>
+  </si>
+  <si>
+    <t>SIZE = 1536**TIME = 27** nTimes = 1000 SUM = -5</t>
+  </si>
+  <si>
+    <t>SIZE = 3072**TIME = 52** nTimes = 1000 SUM = 221</t>
+  </si>
+  <si>
+    <t>SIZE = 6144**TIME = 91** nTimes = 1000 SUM = -577</t>
+  </si>
+  <si>
+    <t>SIZE = 12288**TIME = 194** nTimes = 1000 SUM = 46</t>
+  </si>
+  <si>
+    <t>SIZE = 24576**TIME = 356** nTimes = 1000 SUM = -318</t>
+  </si>
+  <si>
+    <t>SIZE = 49152**TIME = 705** nTimes = 1000 SUM = -186</t>
+  </si>
+  <si>
+    <t>SIZE = 98304**TIME = 1446** nTimes = 1000 SUM = 1461</t>
+  </si>
+  <si>
+    <t>SIZE = 3**TIME = 0** nTimes = 1000 SUM = 4</t>
+  </si>
+  <si>
+    <t>SIZE = 6**TIME = 0** nTimes = 1000 SUM = -2</t>
+  </si>
+  <si>
+    <t>SIZE = 12**TIME = 2** nTimes = 1000 SUM = 9</t>
+  </si>
+  <si>
+    <t>SIZE = 24**TIME = 3** nTimes = 1000 SUM = 37</t>
+  </si>
+  <si>
+    <t>SIZE = 48**TIME = 5** nTimes = 1000 SUM = 62</t>
+  </si>
+  <si>
+    <t>SIZE = 96**TIME = 9** nTimes = 1000 SUM = -82</t>
+  </si>
+  <si>
+    <t>SIZE = 192**TIME = 22** nTimes = 1000 SUM = -22</t>
+  </si>
+  <si>
+    <t>SIZE = 384**TIME = 33** nTimes = 1000 SUM = 21</t>
+  </si>
+  <si>
+    <t>SIZE = 768**TIME = 58** nTimes = 1000 SUM = -362</t>
+  </si>
+  <si>
+    <t>SIZE = 1536**TIME = 115** nTimes = 1000 SUM = 61</t>
+  </si>
+  <si>
+    <t>SIZE = 3072**TIME = 218** nTimes = 1000 SUM = 456</t>
+  </si>
+  <si>
+    <t>SIZE = 6144**TIME = 464** nTimes = 1000 SUM = 493</t>
+  </si>
+  <si>
+    <t>SIZE = 12288**TIME = 900** nTimes = 1000 SUM = 653</t>
+  </si>
+  <si>
+    <t>SIZE = 24576**TIME = 1763** nTimes = 1000 SUM = 695</t>
+  </si>
+  <si>
+    <t>SIZE = 49152**TIME = 3513** nTimes = 1000 SUM = 895</t>
+  </si>
+  <si>
+    <t>SIZE = 98304**TIME = 5718** nTimes = 1000 SUM = 34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +428,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE11E46"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -329,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -348,6 +502,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -1317,16 +1474,234 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88719FBB-BED9-4DFC-8820-BAC0D48929D3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="42" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BB6398-375C-4C4F-B115-537845705094}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>